--- a/biology/Botanique/Parc_de_Beaulieu/Parc_de_Beaulieu.xlsx
+++ b/biology/Botanique/Parc_de_Beaulieu/Parc_de_Beaulieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Beaulieu est un jardin paysager de la ville de Nantes, ouvert au public.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc se trouve à l'extrémité amont de l'île de Nantes (et notamment de l'ancienne île Beaulieu), bordé par les deux bras de la Loire que sont : le « bras de la Madeleine » au nord et le « bras de Pirmil » au sud. Il se situe également à proximité de l'Hôtel de Région. 
 </t>
@@ -543,7 +557,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il doit son nom à l'île Beaulieu.
 </t>
@@ -574,7 +590,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant les années 1960, l'ancienne île Beaulieu était essentiellement constituée de prairies. L'ouverture d'une « deuxième ligne de ponts », va permettre son urbanisation autour du boulevard Général-De-Gaulle. La pointe est, susceptible d'être soumise aux inondations causées par les crues du fleuve, est donc transformée en parc.
 </t>
@@ -605,9 +623,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une superficie de 13,37 ha[1], le parc qui est traversé dans sa partie est par le pont de la Vendée supportant la ligne  ferroviaire Nantes - Saintes, abrite aujourd'hui un CRAPA (Circuit Rustique d'Activités Physiques Aménagé), qui accueille de nombreux adeptes du jogging.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une superficie de 13,37 ha, le parc qui est traversé dans sa partie est par le pont de la Vendée supportant la ligne  ferroviaire Nantes - Saintes, abrite aujourd'hui un CRAPA (Circuit Rustique d'Activités Physiques Aménagé), qui accueille de nombreux adeptes du jogging.
 </t>
         </is>
       </c>
